--- a/spring_input.xlsx
+++ b/spring_input.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t xml:space="preserve">setup</t>
   </si>
@@ -255,10 +255,10 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.85"/>
@@ -293,6 +293,9 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -316,6 +319,9 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -342,6 +348,10 @@
       <c r="H3" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -374,6 +384,11 @@
         <f aca="false">8*25.4</f>
         <v>203.2</v>
       </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">8*25.4</f>
+        <v>203.2</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -406,6 +421,11 @@
         <f aca="false">2.36*25.4</f>
         <v>59.944</v>
       </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">2.36*25.4</f>
+        <v>59.944</v>
+      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -432,6 +452,9 @@
       <c r="H6" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="I6" s="1" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -464,6 +487,10 @@
         <f aca="false">8*25.4</f>
         <v>203.2</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">6*25.4</f>
+        <v>152.4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -496,6 +523,10 @@
         <f aca="false">2.06*25.4</f>
         <v>52.324</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">1.85*25.4</f>
+        <v>46.99</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -522,7 +553,9 @@
       <c r="H9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="n">
+        <v>25</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -556,7 +589,9 @@
       <c r="H10" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -586,7 +621,9 @@
       <c r="H11" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="n">
+        <v>620</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -616,7 +653,9 @@
       <c r="H12" s="1" t="n">
         <v>540</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="n">
+        <v>520</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -649,6 +688,10 @@
         <v>421.64</v>
       </c>
       <c r="H13" s="1" t="n">
+        <f aca="false">16.6*25.4</f>
+        <v>421.64</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <f aca="false">16.6*25.4</f>
         <v>421.64</v>
       </c>
